--- a/database/seeders/data/Currency.xlsx
+++ b/database/seeders/data/Currency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>code</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>is_active</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>Rupiah Indonesia</t>
   </si>
 </sst>
 </file>
@@ -503,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,278 +528,289 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6">
-      <c r="A15" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6">
-      <c r="A16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6">
-      <c r="A18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6">
-      <c r="A20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6">
-      <c r="A22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6">
-      <c r="A23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6">
-      <c r="A24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>1</v>
       </c>
     </row>

--- a/database/seeders/data/Currency.xlsx
+++ b/database/seeders/data/Currency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>THB</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>is_active</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -412,7 +415,7 @@
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -422,8 +425,11 @@
       <c r="C1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -433,8 +439,11 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -444,8 +453,11 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -455,8 +467,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -466,8 +481,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -477,8 +495,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -488,8 +509,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -499,8 +523,11 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -510,10 +537,13 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
